--- a/data/2024_05_14_RepoMetaCuration.xlsx
+++ b/data/2024_05_14_RepoMetaCuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtsueng\Anaconda3\envs\nde\nde_meta_batch_converter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191D459B-E450-477D-8BED-8B00D04AF800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080FED36-B54A-4A02-BB78-E3A19F64A235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resource_base" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>All content</t>
   </si>
   <si>
-    <t>basic science</t>
-  </si>
-  <si>
     <t>PeptideAtlas</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>[16381952, 20013378]</t>
   </si>
   <si>
-    <t>biomedical</t>
-  </si>
-  <si>
     <t>UniProt</t>
   </si>
   <si>
@@ -1371,6 +1365,12 @@
   </si>
   <si>
     <t>https://www.uniprot.org/help/downloads</t>
+  </si>
+  <si>
+    <t>Basic science</t>
+  </si>
+  <si>
+    <t>Biomedical</t>
   </si>
 </sst>
 </file>
@@ -1768,9 +1768,9 @@
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8" t="s">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="S3" s="11">
         <v>45420</v>
@@ -1971,29 +1971,29 @@
     </row>
     <row r="4" spans="1:23" ht="20.25" customHeight="1">
       <c r="A4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>31</v>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="Q4" s="8"/>
       <c r="R4" s="8" t="s">
-        <v>52</v>
+        <v>443</v>
       </c>
       <c r="S4" s="11">
         <v>45329</v>
@@ -2028,38 +2028,38 @@
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="K5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="M5" s="8" t="b">
         <v>1</v>
@@ -2074,10 +2074,10 @@
         <v>33</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="S5" s="11">
         <v>45378</v>
@@ -5110,27 +5110,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -5138,22 +5138,22 @@
         <v>22</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
@@ -5161,22 +5161,22 @@
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
@@ -5184,19 +5184,19 @@
         <v>36</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="E4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
@@ -5204,19 +5204,19 @@
         <v>36</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -5224,19 +5224,19 @@
         <v>36</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
@@ -5244,19 +5244,19 @@
         <v>36</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
@@ -5264,16 +5264,16 @@
         <v>36</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
@@ -5281,19 +5281,19 @@
         <v>36</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="E9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
@@ -5301,16 +5301,16 @@
         <v>36</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
@@ -5318,22 +5318,22 @@
         <v>36</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="E11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="G11" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
@@ -5341,22 +5341,22 @@
         <v>36</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.4">
@@ -5364,22 +5364,22 @@
         <v>36</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.4">
@@ -5387,19 +5387,19 @@
         <v>36</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="E14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.4">
@@ -5407,19 +5407,19 @@
         <v>36</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.4">
@@ -5427,19 +5427,19 @@
         <v>36</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="E16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.4">
@@ -5447,16 +5447,16 @@
         <v>36</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E17" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.4">
@@ -5464,16 +5464,16 @@
         <v>36</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.4">
@@ -5481,524 +5481,524 @@
         <v>36</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E19" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4">
       <c r="A20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.4">
       <c r="A21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.4">
       <c r="A22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.4">
       <c r="A23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.4">
       <c r="A24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E24" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.4">
       <c r="A25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="E25" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="G25" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.4">
       <c r="A26" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="E26" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>114</v>
-      </c>
       <c r="G26" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.4">
       <c r="A27" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.4">
       <c r="A28" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.4">
       <c r="A29" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.4">
       <c r="A30" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="E30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="G30" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.4">
       <c r="A31" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.4">
       <c r="A32" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.4">
       <c r="A33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.4">
       <c r="A34" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.4">
       <c r="A35" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="E35" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.4">
       <c r="A36" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="E36" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.4">
       <c r="A37" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E37" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.4">
       <c r="A38" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="E38" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="15" t="s">
+      <c r="G38" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.4">
       <c r="A39" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.4">
       <c r="A40" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="E40" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>140</v>
-      </c>
       <c r="G40" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.4">
       <c r="A41" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E41" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.4">
       <c r="A42" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E42" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -6060,15 +6060,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="13.2">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
@@ -6079,7 +6079,7 @@
         <v>20693</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="8"/>
     </row>
@@ -6091,7 +6091,7 @@
         <v>339</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -6102,7 +6102,7 @@
         <v>235</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
@@ -6113,7 +6113,7 @@
         <v>678</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -6124,51 +6124,51 @@
         <v>35330</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="15">
         <v>96</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="17">
         <v>248805733</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="17">
         <v>571282</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="17">
         <v>248234451</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6200,30 +6200,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13.2">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
@@ -6231,13 +6231,13 @@
         <v>22</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>161</v>
       </c>
       <c r="G2" s="15">
         <v>21606332</v>
@@ -6248,13 +6248,13 @@
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="G3" s="15">
         <v>35724561</v>
@@ -6265,13 +6265,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G4" s="15">
         <v>29716188</v>
@@ -6282,13 +6282,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G5" s="15">
         <v>7108955</v>
@@ -6299,13 +6299,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G6" s="15">
         <v>8836100</v>
@@ -6316,13 +6316,13 @@
         <v>22</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" s="15">
         <v>6582470</v>
@@ -6333,13 +6333,13 @@
         <v>22</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="15">
         <v>19089980</v>
@@ -6350,13 +6350,13 @@
         <v>22</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G9" s="15">
         <v>15674282</v>
@@ -6364,148 +6364,148 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="E10" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="E11" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4">
       <c r="A12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="14.4">
       <c r="A13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="14.4">
       <c r="A14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.4">
       <c r="A15" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.4">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="F16" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.4">
       <c r="A17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G17" s="15">
         <v>36484697</v>
@@ -6513,16 +6513,16 @@
     </row>
     <row r="18" spans="1:7" ht="14.4">
       <c r="A18" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="G18" s="15">
         <v>34871295</v>
@@ -6530,16 +6530,16 @@
     </row>
     <row r="19" spans="1:7" ht="14.4">
       <c r="A19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G19" s="15">
         <v>32716361</v>
@@ -6547,16 +6547,16 @@
     </row>
     <row r="20" spans="1:7" ht="14.4">
       <c r="A20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G20" s="15">
         <v>30937429</v>
@@ -6564,49 +6564,49 @@
     </row>
     <row r="21" spans="1:7" ht="14.4">
       <c r="A21" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.4">
       <c r="A22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.4">
       <c r="A23" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.2">
@@ -6614,16 +6614,16 @@
         <v>36</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.2">
@@ -6631,14 +6631,14 @@
         <v>36</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="13.2">
@@ -6646,31 +6646,31 @@
         <v>36</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.4">
       <c r="A27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6734,33 +6734,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="13.2">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
@@ -6768,20 +6768,20 @@
         <v>22</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>215</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
@@ -6789,23 +6789,23 @@
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
@@ -6813,20 +6813,20 @@
         <v>22</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I4" s="15"/>
     </row>
@@ -6835,20 +6835,20 @@
         <v>22</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>226</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I5" s="15"/>
     </row>
@@ -6857,20 +6857,20 @@
         <v>22</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>227</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>229</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I6" s="15"/>
     </row>
@@ -6879,20 +6879,20 @@
         <v>22</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I7" s="15"/>
     </row>
@@ -6901,23 +6901,23 @@
         <v>22</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
@@ -6925,23 +6925,23 @@
         <v>22</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
@@ -6949,23 +6949,23 @@
         <v>22</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
@@ -6973,23 +6973,23 @@
         <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4">
@@ -6997,394 +6997,394 @@
         <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D13" s="8"/>
       <c r="I13" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.4">
       <c r="A17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.4">
       <c r="A18" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>259</v>
-      </c>
       <c r="G18" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.4">
       <c r="A19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C19" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>262</v>
-      </c>
       <c r="G19" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4">
       <c r="A20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C20" s="15" t="str">
         <f>CONCATENATE(D20," ",E20)</f>
         <v>Lionel Breuza</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.4">
       <c r="A21" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>267</v>
-      </c>
       <c r="G21" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.4">
       <c r="A22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>270</v>
-      </c>
       <c r="G22" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.4">
       <c r="A23" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>273</v>
-      </c>
       <c r="G23" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.4">
       <c r="A24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C24" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>276</v>
-      </c>
       <c r="G24" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.4">
       <c r="A25" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>279</v>
-      </c>
       <c r="G25" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.4">
       <c r="A26" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C26" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>282</v>
-      </c>
       <c r="G26" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.4">
       <c r="A27" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C27" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>285</v>
-      </c>
       <c r="G27" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.4">
       <c r="A28" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="G28" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.4">
       <c r="A29" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C29" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>291</v>
-      </c>
       <c r="G29" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.4">
       <c r="A30" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C30" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>294</v>
-      </c>
       <c r="G30" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.4">
       <c r="A31" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>297</v>
-      </c>
       <c r="G31" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.4">
       <c r="A32" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="G32" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -7441,18 +7441,18 @@
     <col min="2" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13.2">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E1" s="15"/>
     </row>
@@ -7461,10 +7461,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -7472,10 +7472,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -7483,10 +7483,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -7494,10 +7494,10 @@
         <v>22</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
@@ -7505,10 +7505,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -7516,10 +7516,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
@@ -7527,10 +7527,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
@@ -7538,10 +7538,10 @@
         <v>22</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
@@ -7549,10 +7549,10 @@
         <v>22</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
@@ -7560,10 +7560,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4">
@@ -7571,10 +7571,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.4">
@@ -7582,10 +7582,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4">
@@ -7593,10 +7593,10 @@
         <v>22</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.4">
@@ -7604,10 +7604,10 @@
         <v>22</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.4">
@@ -7615,10 +7615,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4">
@@ -7626,10 +7626,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4">
@@ -7637,10 +7637,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>322</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4">
@@ -7648,10 +7648,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4">
@@ -7659,10 +7659,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.2">
@@ -7670,10 +7670,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.2">
@@ -7681,10 +7681,10 @@
         <v>36</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.4">
@@ -7692,10 +7692,10 @@
         <v>36</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.4">
@@ -7703,10 +7703,10 @@
         <v>36</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.4">
@@ -7714,10 +7714,10 @@
         <v>36</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.4">
@@ -7725,10 +7725,10 @@
         <v>36</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.4">
@@ -7736,10 +7736,10 @@
         <v>36</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.4">
@@ -7747,10 +7747,10 @@
         <v>36</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.4">
@@ -7758,10 +7758,10 @@
         <v>36</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.4">
@@ -7769,11 +7769,11 @@
         <v>36</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.4">
@@ -7781,11 +7781,11 @@
         <v>36</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.4">
@@ -7793,11 +7793,11 @@
         <v>36</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.8">
@@ -7805,13 +7805,13 @@
         <v>36</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.8">
@@ -7819,13 +7819,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.8">
@@ -7833,13 +7833,13 @@
         <v>36</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.8">
@@ -7847,13 +7847,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13.8">
@@ -7861,13 +7861,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.8">
@@ -7875,13 +7875,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.8">
@@ -7889,13 +7889,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.8">
@@ -7903,13 +7903,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.8">
@@ -7917,13 +7917,13 @@
         <v>36</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="13.8">
@@ -7931,723 +7931,723 @@
         <v>36</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.4">
       <c r="A43" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.4">
       <c r="A44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.4">
       <c r="A45" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.4">
       <c r="A46" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.4">
       <c r="A47" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.4">
       <c r="A48" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.4">
       <c r="A49" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.4">
       <c r="A50" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.4">
       <c r="A51" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.4">
       <c r="A52" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.4">
       <c r="A53" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.4">
       <c r="A54" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.4">
       <c r="A55" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.4">
       <c r="A56" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.4">
       <c r="A57" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.4">
       <c r="A58" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.4">
       <c r="A59" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.4">
       <c r="A60" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.4">
       <c r="A61" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.4">
       <c r="A62" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.4">
       <c r="A63" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.4">
       <c r="A64" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.4">
       <c r="A65" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.4">
       <c r="A66" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.4">
       <c r="A67" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.4">
       <c r="A68" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.4">
       <c r="A69" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.4">
       <c r="A70" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.4">
       <c r="A71" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.4">
       <c r="A72" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.4">
       <c r="A73" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.4">
       <c r="A74" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.4">
       <c r="A75" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.4">
       <c r="A76" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="14.4">
       <c r="A77" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="14.4">
       <c r="A78" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="14.4">
       <c r="A79" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.4">
       <c r="A80" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="14.4">
       <c r="A81" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="14.4">
       <c r="A82" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="14.4">
       <c r="A83" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="14.4">
       <c r="A84" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="14.4">
       <c r="A85" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="14.4">
       <c r="A86" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="14.4">
       <c r="A87" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.4">
       <c r="A88" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="13.2">
       <c r="A89" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="13.2">
       <c r="A90" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="13.2">
       <c r="A91" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="13.2">
       <c r="A92" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="13.2">
       <c r="A93" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="13.2">
       <c r="A94" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="13.2">
       <c r="A95" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="13.2">
       <c r="A96" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="13.2">
       <c r="A97" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -8856,22 +8856,22 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13.2">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>18</v>
@@ -8882,10 +8882,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E2" s="22">
         <v>45420</v>
@@ -8893,13 +8893,13 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>442</v>
       </c>
       <c r="E3" s="22">
         <v>43497</v>
@@ -8907,13 +8907,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E4" s="22">
         <v>45378</v>

--- a/data/2024_05_14_RepoMetaCuration.xlsx
+++ b/data/2024_05_14_RepoMetaCuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtsueng\Anaconda3\envs\nde\nde_meta_batch_converter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080FED36-B54A-4A02-BB78-E3A19F64A235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E209C3-DA95-4CFE-A887-3F4F071025C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resource_base" sheetId="1" r:id="rId1"/>
@@ -1768,7 +1768,7 @@
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -6194,8 +6194,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6570,7 +6570,7 @@
         <v>197</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>198</v>
@@ -6617,7 +6617,7 @@
         <v>197</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>198</v>
@@ -6664,7 +6664,7 @@
         <v>197</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>198</v>
